--- a/data/trans_bre/P23_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,68</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,7%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-28,88%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,2%</t>
+          <t>-6,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-41,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-13,88%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 7,43</t>
+          <t>-7,41; 7,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 7,44</t>
+          <t>-9,47; 6,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 3,46</t>
+          <t>-13,17; 1,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 15,7</t>
+          <t>-9,87; 7,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 100,27</t>
+          <t>-3,05; 16,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 104,4</t>
+          <t>-13,44; 8,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,78; 61,19</t>
+          <t>-51,36; 114,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 247,77</t>
+          <t>-53,03; 81,94</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-72,6; 24,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-60,82; 104,77</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; 258,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-52,56; 57,11</t>
         </is>
       </c>
     </row>
@@ -720,12 +792,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,27 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-1,07</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,82%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-13,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-7,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,98%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,38</t>
+          <t>-7,46; 9,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 8,06</t>
+          <t>-11,94; 7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 5,11</t>
+          <t>-12,71; 4,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 8,65</t>
+          <t>-9,25; 7,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 65,04</t>
+          <t>-11,48; 8,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 79,39</t>
+          <t>-11,82; 8,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 40,44</t>
+          <t>-35,85; 69,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 69,8</t>
+          <t>-50,56; 72,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-49,21; 33,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-48,44; 81,71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-46,54; 69,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 49,59</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,36%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,06%</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,55%</t>
+          <t>-20,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-13,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-21,17%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-29,48%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-24,7%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 1,55</t>
+          <t>-14,57; 2,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 3,75</t>
+          <t>-11,19; 3,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 1,1</t>
+          <t>-12,86; 1,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 6,52</t>
+          <t>-14,53; -0,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 6,85</t>
+          <t>-9,28; 7,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 21,62</t>
+          <t>-14,39; 2,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,89; 7,31</t>
+          <t>-42,54; 11,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 34,83</t>
+          <t>-40,44; 20,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-46,77; 9,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-48,27; 0,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-33,05; 45,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-51,16; 12,89</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>11,51</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,75</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,76%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69,3%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 12,27</t>
+          <t>-1,24; 11,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 12,34</t>
+          <t>0,54; 13,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 10,93</t>
+          <t>-1,62; 11,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 12,7</t>
+          <t>4,92; 18,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 86,42</t>
+          <t>-4,12; 12,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 98,72</t>
+          <t>-4,59; 10,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 73,5</t>
+          <t>-5,88; 78,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 71,97</t>
+          <t>1,09; 98,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 78,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 143,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,14; 71,31</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 61,5</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>35,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-15,16%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 13,81</t>
+          <t>-2,03; 13,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 13,09</t>
+          <t>-1,41; 12,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,51</t>
+          <t>-2,18; 9,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 6,18</t>
+          <t>-4,77; 10,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 122,07</t>
+          <t>-9,69; 6,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 109,57</t>
+          <t>-12,53; 4,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 113,45</t>
+          <t>-12,34; 113,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 37,97</t>
+          <t>-8,73; 99,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; 102,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-26,85; 78,11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-37,68; 39,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-41,46; 24,78</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,18%</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>101,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>71,76%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-3,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-8,89%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52,89%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 11,98</t>
+          <t>0,81; 14,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,56</t>
+          <t>-1,52; 10,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 5,46</t>
+          <t>-6,73; 5,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 7,94</t>
+          <t>-11,84; 8,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 287,77</t>
+          <t>-9,69; 7,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 237,3</t>
+          <t>-1,33; 18,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 94,25</t>
+          <t>1,6; 346,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,01; 94,21</t>
+          <t>-20,13; 241,89</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-54,56; 93,35</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-50,36; 60,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-53,83; 76,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 176,91</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,03%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,29</t>
+          <t>-1,27; 5,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,78</t>
+          <t>-1,15; 4,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,91</t>
+          <t>-3,89; 2,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,11</t>
+          <t>-2,75; 4,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 28,02</t>
+          <t>-3,3; 3,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 36,1</t>
+          <t>-4,35; 3,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 13,58</t>
+          <t>-7,01; 33,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 24,56</t>
+          <t>-6,71; 36,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-21,62; 14,84</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,27; 25,51</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-15,85; 23,3</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-18,11; 16,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
